--- a/kodovi/Pozicije markera.xlsx
+++ b/kodovi/Pozicije markera.xlsx
@@ -231,18 +231,6 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -260,6 +248,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1115,7 +1115,7 @@
   <dimension ref="B3:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1124,280 +1124,280 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
+      <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="11">
         <v>0</v>
       </c>
-      <c r="D7" s="15">
-        <v>50</v>
-      </c>
-      <c r="E7" s="8">
-        <v>15</v>
-      </c>
-      <c r="F7" s="15">
-        <f>IF(OR(C7=0,C7=100),C7,C7+5.5/2)</f>
+      <c r="D7" s="11">
+        <v>56</v>
+      </c>
+      <c r="E7" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" ref="F7:G14" si="0">IF(OR(C7=0,C7=100),C7,C7+5.5/2)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="15">
-        <f>IF(OR(D7=0,D7=100),D7,D7+5.5/2)</f>
-        <v>52.75</v>
-      </c>
-      <c r="H7" s="9">
-        <f>E7-5.5/2</f>
-        <v>12.25</v>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>58.75</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" ref="H7:H14" si="1">E7-5.5/2</f>
+        <v>12.15</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="10">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="12">
         <v>0</v>
       </c>
-      <c r="D8" s="16">
-        <v>20</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="12">
+        <v>26.2</v>
+      </c>
+      <c r="E8" s="2">
         <v>15</v>
       </c>
-      <c r="F8" s="16">
-        <f>IF(OR(C8=0,C8=100),C8,C8+5.5/2)</f>
+      <c r="F8" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="16">
-        <f>IF(OR(D8=0,D8=100),D8,D8+5.5/2)</f>
-        <v>22.75</v>
-      </c>
-      <c r="H8" s="11">
-        <f>E8-5.5/2</f>
+      <c r="G8" s="12">
+        <f t="shared" si="0"/>
+        <v>28.95</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="1"/>
         <v>12.25</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
+      <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="12">
         <v>30</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="12">
         <v>0</v>
       </c>
-      <c r="E9" s="6">
-        <v>15</v>
-      </c>
-      <c r="F9" s="16">
-        <f>IF(OR(C9=0,C9=100),C9,C9+5.5/2)</f>
+      <c r="E9" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="0"/>
         <v>32.75</v>
       </c>
-      <c r="G9" s="16">
-        <f>IF(OR(D9=0,D9=100),D9,D9+5.5/2)</f>
+      <c r="G9" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="11">
-        <f>E9-5.5/2</f>
-        <v>12.25</v>
+      <c r="H9" s="7">
+        <f t="shared" si="1"/>
+        <v>12.15</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="10">
+      <c r="B10" s="6">
         <v>3</v>
       </c>
-      <c r="C10" s="16">
-        <v>70</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="C10" s="12">
+        <v>70.5</v>
+      </c>
+      <c r="D10" s="12">
         <v>0</v>
       </c>
-      <c r="E10" s="6">
-        <v>15</v>
-      </c>
-      <c r="F10" s="16">
-        <f>IF(OR(C10=0,C10=100),C10,C10+5.5/2)</f>
-        <v>72.75</v>
-      </c>
-      <c r="G10" s="16">
-        <f>IF(OR(D10=0,D10=100),D10,D10+5.5/2)</f>
+      <c r="E10" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="0"/>
+        <v>73.25</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="11">
-        <f>E10-5.5/2</f>
-        <v>12.25</v>
+      <c r="H10" s="7">
+        <f t="shared" si="1"/>
+        <v>11.95</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="10">
+      <c r="B11" s="6">
         <v>4</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="12">
         <v>100</v>
       </c>
-      <c r="D11" s="16">
-        <v>10</v>
-      </c>
-      <c r="E11" s="6">
-        <v>15</v>
-      </c>
-      <c r="F11" s="16">
-        <f>IF(OR(C11=0,C11=100),C11,C11+5.5/2)</f>
+      <c r="D11" s="12">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G11" s="16">
-        <f>IF(OR(D11=0,D11=100),D11,D11+5.5/2)</f>
-        <v>12.75</v>
-      </c>
-      <c r="H11" s="11">
-        <f>E11-5.5/2</f>
-        <v>12.25</v>
+      <c r="G11" s="12">
+        <f t="shared" si="0"/>
+        <v>13.75</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="1"/>
+        <v>12.65</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="10">
+      <c r="B12" s="6">
         <v>5</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="12">
         <v>100</v>
       </c>
-      <c r="D12" s="16">
-        <v>60</v>
-      </c>
-      <c r="E12" s="6">
-        <v>15</v>
-      </c>
-      <c r="F12" s="16">
-        <f>IF(OR(C12=0,C12=100),C12,C12+5.5/2)</f>
+      <c r="D12" s="12">
+        <v>60.5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G12" s="16">
-        <f>IF(OR(D12=0,D12=100),D12,D12+5.5/2)</f>
-        <v>62.75</v>
-      </c>
-      <c r="H12" s="11">
-        <f>E12-5.5/2</f>
-        <v>12.25</v>
+      <c r="G12" s="12">
+        <f t="shared" si="0"/>
+        <v>63.25</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="1"/>
+        <v>12.15</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="10">
+      <c r="B13" s="6">
         <v>6</v>
       </c>
-      <c r="C13" s="16">
-        <v>80</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="C13" s="12">
+        <v>86.5</v>
+      </c>
+      <c r="D13" s="12">
         <v>100</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="2">
         <v>15</v>
       </c>
-      <c r="F13" s="16">
-        <f>IF(OR(C13=0,C13=100),C13,C13+5.5/2)</f>
-        <v>82.75</v>
-      </c>
-      <c r="G13" s="16">
-        <f>IF(OR(D13=0,D13=100),D13,D13+5.5/2)</f>
+      <c r="F13" s="12">
+        <f t="shared" si="0"/>
+        <v>89.25</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H13" s="11">
-        <f>E13-5.5/2</f>
+      <c r="H13" s="7">
+        <f t="shared" si="1"/>
         <v>12.25</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="12">
+      <c r="B14" s="8">
         <v>7</v>
       </c>
-      <c r="C14" s="17">
-        <v>40</v>
-      </c>
-      <c r="D14" s="17">
+      <c r="C14" s="13">
+        <v>46.5</v>
+      </c>
+      <c r="D14" s="13">
         <v>100</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="9">
         <v>15</v>
       </c>
-      <c r="F14" s="17">
-        <f>IF(OR(C14=0,C14=100),C14,C14+5.5/2)</f>
-        <v>42.75</v>
-      </c>
-      <c r="G14" s="17">
-        <f>IF(OR(D14=0,D14=100),D14,D14+5.5/2)</f>
+      <c r="F14" s="13">
+        <f t="shared" si="0"/>
+        <v>49.25</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H14" s="14">
-        <f>E14-5.5/2</f>
+      <c r="H14" s="10">
+        <f t="shared" si="1"/>
         <v>12.25</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="6"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G25" s="6"/>
+      <c r="G25" s="2"/>
     </row>
   </sheetData>
   <sortState ref="B7:H14">

--- a/kodovi/Pozicije markera.xlsx
+++ b/kodovi/Pozicije markera.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="8">
   <si>
     <t xml:space="preserve">Kordinatni sistem 100cm x 100cm </t>
   </si>
@@ -400,6 +400,19 @@
             <a:rPr lang="sr-Latn-RS" sz="1800"/>
             <a:t>1</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="sr-Latn-RS" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>16179764</a:t>
+          </a:r>
+          <a:endParaRPr lang="sr-Latn-RS" sz="1800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -840,6 +853,331 @@
           <a:r>
             <a:rPr lang="sr-Latn-RS" sz="1800"/>
             <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A4112C-CBD9-4925-94AF-C3BA818A8180}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2293620" y="3627120"/>
+          <a:ext cx="2514600" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="sr-Latn-RS" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Oval 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3247BB3-A2F1-4BA4-9E38-73A949049524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2118360" y="3383280"/>
+          <a:ext cx="419100" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="sr-Latn-RS" sz="1800"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="sr-Latn-RS" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>16179764</a:t>
+          </a:r>
+          <a:endParaRPr lang="sr-Latn-RS" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Oval 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F75F132-8D18-4A38-B068-5AE4F7157099}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="3314700"/>
+          <a:ext cx="419100" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="sr-Latn-RS" sz="1800"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Oval 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F85258E-4F09-4015-8227-57127BCCA54C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4602480" y="5402580"/>
+          <a:ext cx="419100" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="sr-Latn-RS" sz="1800"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Oval 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF29766-DE3E-4ED7-B0E3-61AF194535D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2042160" y="5501640"/>
+          <a:ext cx="419100" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="sr-Latn-RS" sz="1800"/>
+            <a:t>4</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1112,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H25"/>
+  <dimension ref="B3:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1123,7 +1461,7 @@
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1474,33 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4">
+        <v>55</v>
+      </c>
+      <c r="V4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B5" s="18" t="s">
         <v>1</v>
       </c>
@@ -1150,8 +1514,32 @@
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>50</v>
+      </c>
+      <c r="S5">
+        <v>14.8</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>100</v>
+      </c>
+      <c r="W5">
+        <v>67</v>
+      </c>
+      <c r="X5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B6" s="19"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1171,8 +1559,32 @@
       <c r="H6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>56</v>
+      </c>
+      <c r="S6">
+        <v>14.8</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>100</v>
+      </c>
+      <c r="W6">
+        <v>61</v>
+      </c>
+      <c r="X6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>0</v>
       </c>
@@ -1197,8 +1609,32 @@
         <f t="shared" ref="H7:H14" si="1">E7-5.5/2</f>
         <v>12.15</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>56</v>
+      </c>
+      <c r="S7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>100</v>
+      </c>
+      <c r="W7">
+        <v>61</v>
+      </c>
+      <c r="X7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>1</v>
       </c>
@@ -1223,8 +1659,32 @@
         <f t="shared" si="1"/>
         <v>12.25</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>50</v>
+      </c>
+      <c r="S8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>100</v>
+      </c>
+      <c r="W8">
+        <v>67</v>
+      </c>
+      <c r="X8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>2</v>
       </c>
@@ -1250,7 +1710,7 @@
         <v>12.15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>3</v>
       </c>
@@ -1275,8 +1735,32 @@
         <f t="shared" si="1"/>
         <v>11.95</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>11</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" t="s">
+        <v>7</v>
+      </c>
+      <c r="U10">
+        <v>66</v>
+      </c>
+      <c r="V10" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>4</v>
       </c>
@@ -1301,8 +1785,32 @@
         <f t="shared" si="1"/>
         <v>12.65</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>20.3</v>
+      </c>
+      <c r="S11">
+        <v>15</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>80.5</v>
+      </c>
+      <c r="W11">
+        <v>100</v>
+      </c>
+      <c r="X11">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>5</v>
       </c>
@@ -1327,8 +1835,32 @@
         <f t="shared" si="1"/>
         <v>12.15</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>26.3</v>
+      </c>
+      <c r="S12">
+        <v>15</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>86.5</v>
+      </c>
+      <c r="W12">
+        <v>100</v>
+      </c>
+      <c r="X12">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>6</v>
       </c>
@@ -1353,8 +1885,32 @@
         <f t="shared" si="1"/>
         <v>12.25</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>26.3</v>
+      </c>
+      <c r="S13">
+        <v>9</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>86.5</v>
+      </c>
+      <c r="W13">
+        <v>100</v>
+      </c>
+      <c r="X13">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B14" s="8">
         <v>7</v>
       </c>
@@ -1379,8 +1935,32 @@
         <f t="shared" si="1"/>
         <v>12.25</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>20.3</v>
+      </c>
+      <c r="S14">
+        <v>9</v>
+      </c>
+      <c r="U14">
+        <v>4</v>
+      </c>
+      <c r="V14">
+        <v>80.5</v>
+      </c>
+      <c r="W14">
+        <v>100</v>
+      </c>
+      <c r="X14">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1389,15 +1969,281 @@
       <c r="G15" s="14"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <v>22</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" t="s">
+        <v>7</v>
+      </c>
+      <c r="U16">
+        <v>77</v>
+      </c>
+      <c r="V16" t="s">
+        <v>5</v>
+      </c>
+      <c r="W16" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>15</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="W17">
+        <v>100</v>
+      </c>
+      <c r="X17">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="18" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>30.2</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>15</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>46.2</v>
+      </c>
+      <c r="W18">
+        <v>100</v>
+      </c>
+      <c r="X18">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="19" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>3</v>
+      </c>
+      <c r="Q19">
+        <v>30.2</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>9</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <v>46.2</v>
+      </c>
+      <c r="W19">
+        <v>100</v>
+      </c>
+      <c r="X19">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="20" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <v>4</v>
+      </c>
+      <c r="Q20">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>9</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="W20">
+        <v>100</v>
+      </c>
+      <c r="X20">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="22" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <v>33</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>76.3</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="24" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <v>70.3</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="25" spans="7:24" x14ac:dyDescent="0.3">
       <c r="G25" s="2"/>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>70.3</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <v>4</v>
+      </c>
+      <c r="Q26">
+        <v>76.3</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <v>44</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s">
+        <v>6</v>
+      </c>
+      <c r="S28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>100</v>
+      </c>
+      <c r="R29">
+        <v>17.3</v>
+      </c>
+      <c r="S29">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="30" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>100</v>
+      </c>
+      <c r="R30">
+        <v>11.3</v>
+      </c>
+      <c r="S30">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="31" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <v>3</v>
+      </c>
+      <c r="Q31">
+        <v>100</v>
+      </c>
+      <c r="R31">
+        <v>11.3</v>
+      </c>
+      <c r="S31">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <v>4</v>
+      </c>
+      <c r="Q32">
+        <v>100</v>
+      </c>
+      <c r="R32">
+        <v>17.3</v>
+      </c>
+      <c r="S32">
+        <v>9.1999999999999993</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="B7:H14">

--- a/kodovi/Pozicije markera.xlsx
+++ b/kodovi/Pozicije markera.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,9 +34,6 @@
     <t>Kordinata centra</t>
   </si>
   <si>
-    <t>Markeri dimanziaj 5,5 x 5,5 cm</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -45,11 +42,14 @@
   <si>
     <t>z</t>
   </si>
+  <si>
+    <t>Markeri dimanziaj 6 x 6 cm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -297,7 +297,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76698D1C-C218-4729-AA72-ECD5C07C2977}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76698D1C-C218-4729-AA72-ECD5C07C2977}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -360,7 +360,7 @@
         <xdr:cNvPr id="3" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48B3DAAF-177E-4DA1-966D-DD8EE7351461}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48B3DAAF-177E-4DA1-966D-DD8EE7351461}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -436,7 +436,7 @@
         <xdr:cNvPr id="4" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F19B9C4-1311-4EB5-9E3C-9E37614B0AF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F19B9C4-1311-4EB5-9E3C-9E37614B0AF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -499,7 +499,7 @@
         <xdr:cNvPr id="5" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A7682F-1855-4F4C-82EF-DB4615CCF5F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60A7682F-1855-4F4C-82EF-DB4615CCF5F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -562,7 +562,7 @@
         <xdr:cNvPr id="6" name="Oval 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ECBB1B3-3E61-426F-A474-DBAB07A2A409}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2ECBB1B3-3E61-426F-A474-DBAB07A2A409}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -625,7 +625,7 @@
         <xdr:cNvPr id="7" name="Oval 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E53FF8-1E91-4F59-ADAE-74EDDBF227A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45E53FF8-1E91-4F59-ADAE-74EDDBF227A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -688,7 +688,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B190DD-6D2D-44C8-8C21-E3DD836403CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12B190DD-6D2D-44C8-8C21-E3DD836403CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -751,7 +751,7 @@
         <xdr:cNvPr id="9" name="Oval 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA7CF281-F69F-4D50-AE91-E52B2EE352F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA7CF281-F69F-4D50-AE91-E52B2EE352F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -814,7 +814,7 @@
         <xdr:cNvPr id="10" name="Oval 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B820D909-8044-4A14-AE45-F28B2C9A3192}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B820D909-8044-4A14-AE45-F28B2C9A3192}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -877,7 +877,7 @@
         <xdr:cNvPr id="11" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A4112C-CBD9-4925-94AF-C3BA818A8180}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92A4112C-CBD9-4925-94AF-C3BA818A8180}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -937,7 +937,7 @@
         <xdr:cNvPr id="12" name="Oval 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3247BB3-A2F1-4BA4-9E38-73A949049524}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D3247BB3-A2F1-4BA4-9E38-73A949049524}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1013,7 +1013,7 @@
         <xdr:cNvPr id="13" name="Oval 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F75F132-8D18-4A38-B068-5AE4F7157099}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F75F132-8D18-4A38-B068-5AE4F7157099}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1076,7 +1076,7 @@
         <xdr:cNvPr id="14" name="Oval 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F85258E-4F09-4015-8227-57127BCCA54C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F85258E-4F09-4015-8227-57127BCCA54C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1139,7 +1139,7 @@
         <xdr:cNvPr id="15" name="Oval 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF29766-DE3E-4ED7-B0E3-61AF194535D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BF29766-DE3E-4ED7-B0E3-61AF194535D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1452,16 +1452,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
@@ -1469,38 +1469,38 @@
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s">
         <v>5</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>6</v>
-      </c>
-      <c r="S4" t="s">
-        <v>7</v>
       </c>
       <c r="U4">
         <v>55</v>
       </c>
       <c r="V4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" t="s">
         <v>5</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>6</v>
       </c>
-      <c r="X4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>1</v>
       </c>
@@ -1539,25 +1539,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="19"/>
       <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -1584,7 +1584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>0</v>
       </c>
@@ -1598,16 +1598,16 @@
         <v>14.9</v>
       </c>
       <c r="F7" s="11">
-        <f t="shared" ref="F7:G14" si="0">IF(OR(C7=0,C7=100),C7,C7+5.5/2)</f>
+        <f>IF(OR(C7=0,C7=100),C7,C7+6/2)</f>
         <v>0</v>
       </c>
       <c r="G7" s="11">
-        <f t="shared" si="0"/>
-        <v>58.75</v>
+        <f>IF(OR(D7=0,D7=100),D7,D7+6/2)</f>
+        <v>59</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" ref="H7:H14" si="1">E7-5.5/2</f>
-        <v>12.15</v>
+        <f>E7-6/2</f>
+        <v>11.9</v>
       </c>
       <c r="P7">
         <v>3</v>
@@ -1634,7 +1634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>1</v>
       </c>
@@ -1648,16 +1648,16 @@
         <v>15</v>
       </c>
       <c r="F8" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(OR(C8=0,C8=100),C8,C8+6/2)</f>
         <v>0</v>
       </c>
       <c r="G8" s="12">
-        <f t="shared" si="0"/>
-        <v>28.95</v>
+        <f>IF(OR(D8=0,D8=100),D8,D8+6/2)</f>
+        <v>29.2</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="1"/>
-        <v>12.25</v>
+        <f>E8-6/2</f>
+        <v>12</v>
       </c>
       <c r="P8">
         <v>4</v>
@@ -1684,7 +1684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>2</v>
       </c>
@@ -1698,19 +1698,19 @@
         <v>14.9</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="0"/>
-        <v>32.75</v>
+        <f>IF(OR(C9=0,C9=100),C9,C9+6/2)</f>
+        <v>33</v>
       </c>
       <c r="G9" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(OR(D9=0,D9=100),D9,D9+6/2)</f>
         <v>0</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="1"/>
-        <v>12.15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+        <f>E9-6/2</f>
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>3</v>
       </c>
@@ -1724,43 +1724,43 @@
         <v>14.7</v>
       </c>
       <c r="F10" s="12">
-        <f t="shared" si="0"/>
-        <v>73.25</v>
+        <f>IF(OR(C10=0,C10=100),C10,C10+6/2)</f>
+        <v>73.5</v>
       </c>
       <c r="G10" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(OR(D10=0,D10=100),D10,D10+6/2)</f>
         <v>0</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="1"/>
-        <v>11.95</v>
+        <f>E10-6/2</f>
+        <v>11.7</v>
       </c>
       <c r="P10">
         <v>11</v>
       </c>
       <c r="Q10" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s">
         <v>5</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>6</v>
-      </c>
-      <c r="S10" t="s">
-        <v>7</v>
       </c>
       <c r="U10">
         <v>66</v>
       </c>
       <c r="V10" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" t="s">
         <v>5</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>6</v>
       </c>
-      <c r="X10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>4</v>
       </c>
@@ -1774,16 +1774,16 @@
         <v>15.4</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(OR(C11=0,C11=100),C11,C11+6/2)</f>
         <v>100</v>
       </c>
       <c r="G11" s="12">
-        <f t="shared" si="0"/>
-        <v>13.75</v>
+        <f>IF(OR(D11=0,D11=100),D11,D11+6/2)</f>
+        <v>14</v>
       </c>
       <c r="H11" s="7">
-        <f t="shared" si="1"/>
-        <v>12.65</v>
+        <f>E11-6/2</f>
+        <v>12.4</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -1810,7 +1810,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>5</v>
       </c>
@@ -1824,16 +1824,16 @@
         <v>14.9</v>
       </c>
       <c r="F12" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(OR(C12=0,C12=100),C12,C12+6/2)</f>
         <v>100</v>
       </c>
       <c r="G12" s="12">
-        <f t="shared" si="0"/>
-        <v>63.25</v>
+        <f>IF(OR(D12=0,D12=100),D12,D12+6/2)</f>
+        <v>63.5</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" si="1"/>
-        <v>12.15</v>
+        <f>E12-6/2</f>
+        <v>11.9</v>
       </c>
       <c r="P12">
         <v>2</v>
@@ -1860,7 +1860,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>6</v>
       </c>
@@ -1874,16 +1874,16 @@
         <v>15</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="0"/>
-        <v>89.25</v>
+        <f>IF(OR(C13=0,C13=100),C13,C13+6/2)</f>
+        <v>89.5</v>
       </c>
       <c r="G13" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(OR(D13=0,D13=100),D13,D13+6/2)</f>
         <v>100</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" si="1"/>
-        <v>12.25</v>
+        <f>E13-6/2</f>
+        <v>12</v>
       </c>
       <c r="P13">
         <v>3</v>
@@ -1910,7 +1910,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>7</v>
       </c>
@@ -1924,16 +1924,16 @@
         <v>15</v>
       </c>
       <c r="F14" s="13">
-        <f t="shared" si="0"/>
-        <v>49.25</v>
+        <f>IF(OR(C14=0,C14=100),C14,C14+6/2)</f>
+        <v>49.5</v>
       </c>
       <c r="G14" s="13">
-        <f t="shared" si="0"/>
+        <f>IF(OR(D14=0,D14=100),D14,D14+6/2)</f>
         <v>100</v>
       </c>
       <c r="H14" s="10">
-        <f t="shared" si="1"/>
-        <v>12.25</v>
+        <f>E14-6/2</f>
+        <v>12</v>
       </c>
       <c r="P14">
         <v>4</v>
@@ -1960,7 +1960,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1969,7 +1969,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -1979,28 +1979,28 @@
         <v>22</v>
       </c>
       <c r="Q16" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s">
         <v>5</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>6</v>
-      </c>
-      <c r="S16" t="s">
-        <v>7</v>
       </c>
       <c r="U16">
         <v>77</v>
       </c>
       <c r="V16" t="s">
+        <v>4</v>
+      </c>
+      <c r="W16" t="s">
         <v>5</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>6</v>
       </c>
-      <c r="X16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="7:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="7:24" x14ac:dyDescent="0.25">
       <c r="P17">
         <v>1</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="18" spans="7:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:24" x14ac:dyDescent="0.25">
       <c r="P18">
         <v>2</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="19" spans="7:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:24" x14ac:dyDescent="0.25">
       <c r="P19">
         <v>3</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="20" spans="7:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:24" x14ac:dyDescent="0.25">
       <c r="P20">
         <v>4</v>
       </c>
@@ -2104,21 +2104,21 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="22" spans="7:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:24" x14ac:dyDescent="0.25">
       <c r="P22">
         <v>33</v>
       </c>
       <c r="Q22" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s">
         <v>5</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>6</v>
       </c>
-      <c r="S22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="7:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="7:24" x14ac:dyDescent="0.25">
       <c r="P23">
         <v>1</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="24" spans="7:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:24" x14ac:dyDescent="0.25">
       <c r="P24">
         <v>2</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="25" spans="7:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:24" x14ac:dyDescent="0.25">
       <c r="G25" s="2"/>
       <c r="P25">
         <v>3</v>
@@ -2161,7 +2161,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="26" spans="7:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:24" x14ac:dyDescent="0.25">
       <c r="P26">
         <v>4</v>
       </c>
@@ -2175,21 +2175,21 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="28" spans="7:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:24" x14ac:dyDescent="0.25">
       <c r="P28">
         <v>44</v>
       </c>
       <c r="Q28" t="s">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s">
         <v>5</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>6</v>
       </c>
-      <c r="S28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="7:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="7:24" x14ac:dyDescent="0.25">
       <c r="P29">
         <v>1</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="30" spans="7:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:24" x14ac:dyDescent="0.25">
       <c r="P30">
         <v>2</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="31" spans="7:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:24" x14ac:dyDescent="0.25">
       <c r="P31">
         <v>3</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="32" spans="7:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:24" x14ac:dyDescent="0.25">
       <c r="P32">
         <v>4</v>
       </c>
